--- a/eg_data/NHANES/PF/Covariate selection.xlsx
+++ b/eg_data/NHANES/PF/Covariate selection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadoh\OneDrive\Documents\GitHub\DietR\eg_data\NHANES\PF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C80194C-642F-4A48-B756-7DE3B971C891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8455BFD-A2E4-46FF-B055-C77051FFC39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="2595" windowWidth="17910" windowHeight="12150" activeTab="1" xr2:uid="{BEFB6ABE-EB4B-466C-93F7-A815665CBC5A}"/>
+    <workbookView xWindow="27945" yWindow="-2865" windowWidth="19545" windowHeight="15495" activeTab="1" xr2:uid="{BEFB6ABE-EB4B-466C-93F7-A815665CBC5A}"/>
   </bookViews>
   <sheets>
     <sheet name="n=4064" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="20">
   <si>
     <t>BMXWAIST</t>
   </si>
@@ -84,9 +84,6 @@
     <t>n=4064, complete data in waist and dietary records, but not BMI.</t>
   </si>
   <si>
-    <t>n=4038, complete data in waist, BMI, and dietary records.</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -94,6 +91,12 @@
   </si>
   <si>
     <t>Correlation without PF_TOTAL_LEG and BMI.</t>
+  </si>
+  <si>
+    <t>n=4038, Complete data in waist, BMI, and dietary records.</t>
+  </si>
+  <si>
+    <t>Or use performanceAnalytics::chartCOrrelation.</t>
   </si>
 </sst>
 </file>
@@ -134,7 +137,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +153,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -210,12 +219,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -250,6 +253,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1485,6 +1492,334 @@
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>101661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0067469-80CE-FDC9-7CDB-B4E191E109B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="24403050"/>
+          <a:ext cx="5619750" cy="5273736"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D803102D-E758-492F-933F-EA26DDC3045D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6086475" y="24403050"/>
+          <a:ext cx="5657850" cy="3933826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Covariates shoud not be highly correlated with each other. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>This will also help in reducing the number of covariates.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>The highest correlation is between </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>KCAL and PF_TOTAL_LEG, R=0.53, followed by </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>FIBE and PF_LEGUMES, and </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>FIBE and KCAL. both R=0.52.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Want to keep KCAL... </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Removing FIBE and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PF_TOTAL_LEG </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>will solve all the problems. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>So, without FIBE and PF_TOTAL_LEG , let's look at the correlation again.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>201737</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>22718</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D645E24-931E-107E-01DE-A391A89E7B47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="201737" y="29879924"/>
+          <a:ext cx="5665663" cy="5432919"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47F1445E-376E-48C6-93B1-C233866C08AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6115050" y="30070425"/>
+          <a:ext cx="5657850" cy="3933826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Age and Gender are OK.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>PF_LEGUMES and KCAL are statistically correlated, but R=0.16 is low and it is hard to see they are correlated from the scatterplot. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1803,7 +2138,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2147,16 +2482,16 @@
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="13" t="s">
+      <c r="C23" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2201,43 +2536,42 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="10">
-        <v>0</v>
-      </c>
-      <c r="C27" s="10">
-        <v>0</v>
-      </c>
-      <c r="D27" s="10">
-        <v>0</v>
-      </c>
-      <c r="E27" s="10">
-        <v>0</v>
-      </c>
-      <c r="F27" s="10">
-        <v>0</v>
-      </c>
-      <c r="G27" s="10">
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
         <v>1.7178587929441901E-2</v>
       </c>
-      <c r="H27" s="11"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
@@ -2597,29 +2931,29 @@
       <c r="A60" s="9"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18" t="s">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -2636,102 +2970,102 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="19">
-        <v>1</v>
-      </c>
-      <c r="C64" s="19">
+      <c r="B64" s="17">
+        <v>1</v>
+      </c>
+      <c r="C64" s="17">
         <v>-0.351319631682459</v>
       </c>
-      <c r="D64" s="19">
+      <c r="D64" s="17">
         <v>-0.131720134197431</v>
       </c>
-      <c r="E64" s="19">
+      <c r="E64" s="17">
         <v>0.52418492914645598</v>
       </c>
-      <c r="F64" s="19">
+      <c r="F64" s="17">
         <v>0.15843956019467401</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" s="19">
+      <c r="A65" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="17">
         <v>-0.351319631682459</v>
       </c>
-      <c r="C65" s="19">
-        <v>1</v>
-      </c>
-      <c r="D65" s="19">
+      <c r="C65" s="17">
+        <v>1</v>
+      </c>
+      <c r="D65" s="17">
         <v>-2.5589167652522699E-2</v>
       </c>
-      <c r="E65" s="19">
+      <c r="E65" s="17">
         <v>-0.157779849983087</v>
       </c>
-      <c r="F65" s="19">
+      <c r="F65" s="17">
         <v>-6.3651388787650795E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="19">
+      <c r="B66" s="17">
         <v>-0.131720134197431</v>
       </c>
-      <c r="C66" s="19">
+      <c r="C66" s="17">
         <v>-2.5589167652522699E-2</v>
       </c>
-      <c r="D66" s="19">
-        <v>1</v>
-      </c>
-      <c r="E66" s="19">
+      <c r="D66" s="17">
+        <v>1</v>
+      </c>
+      <c r="E66" s="17">
         <v>2.8297992847071698E-2</v>
       </c>
-      <c r="F66" s="19">
+      <c r="F66" s="17">
         <v>3.0746317009282E-3</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="19">
+      <c r="B67" s="17">
         <v>0.52418492914645598</v>
       </c>
-      <c r="C67" s="19">
+      <c r="C67" s="17">
         <v>-0.157779849983087</v>
       </c>
-      <c r="D67" s="19">
+      <c r="D67" s="17">
         <v>2.8297992847071698E-2</v>
       </c>
-      <c r="E67" s="19">
-        <v>1</v>
-      </c>
-      <c r="F67" s="19">
+      <c r="E67" s="17">
+        <v>1</v>
+      </c>
+      <c r="F67" s="17">
         <v>0.52274542988515005</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="18" t="s">
+      <c r="A68" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="19">
+      <c r="B68" s="17">
         <v>0.15843956019467401</v>
       </c>
-      <c r="C68" s="19">
+      <c r="C68" s="17">
         <v>-6.3651388787650795E-2</v>
       </c>
-      <c r="D68" s="19">
+      <c r="D68" s="17">
         <v>3.0746317009282E-3</v>
       </c>
-      <c r="E68" s="19">
+      <c r="E68" s="17">
         <v>0.52274542988515005</v>
       </c>
-      <c r="F68" s="19">
+      <c r="F68" s="17">
         <v>1</v>
       </c>
     </row>
@@ -2739,7 +3073,7 @@
       <c r="A69" s="9"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="18"/>
+      <c r="A70" s="16"/>
       <c r="B70" s="4" t="s">
         <v>6</v>
       </c>
@@ -2757,7 +3091,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="18" t="s">
+      <c r="A71" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B71" s="4" t="s">
@@ -2777,7 +3111,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B72" s="4">
@@ -2797,7 +3131,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="18" t="s">
+      <c r="A73" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B73" s="4">
@@ -2817,7 +3151,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="18" t="s">
+      <c r="A74" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B74" s="4">
@@ -2837,7 +3171,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="18" t="s">
+      <c r="A75" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B75" s="4">
@@ -2890,22 +3224,22 @@
       <c r="A86" s="9"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="17" t="s">
+      <c r="A91" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="15"/>
-      <c r="L91" s="16"/>
-      <c r="M91" s="16"/>
-      <c r="N91" s="16"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="13"/>
+      <c r="K91" s="13"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="14"/>
+      <c r="N91" s="14"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
@@ -2932,7 +3266,7 @@
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="18" t="s">
+      <c r="A94" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B94" s="7">
@@ -2958,7 +3292,7 @@
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="18" t="s">
+      <c r="A95" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B95" s="7">
@@ -2984,7 +3318,7 @@
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="18" t="s">
+      <c r="A96" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B96" s="7">
@@ -3010,7 +3344,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="18" t="s">
+      <c r="A97" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B97" s="7">
@@ -3036,7 +3370,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="18" t="s">
+      <c r="A98" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B98" s="7">
@@ -3062,7 +3396,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="18" t="s">
+      <c r="A99" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B99" s="7">
@@ -3088,7 +3422,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="18" t="s">
+      <c r="A100" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B100" s="7">
@@ -3623,10 +3957,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B7E581-37AC-4252-A609-A0C1DA46780D}">
-  <dimension ref="A1:Q102"/>
+  <dimension ref="A1:Q127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="K118" sqref="K118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K154" sqref="K154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3636,549 +3970,549 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="B3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="22">
+        <v>1</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0.911575351148047</v>
+      </c>
+      <c r="D4" s="22">
+        <v>-7.7978328386156606E-2</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0.22442470424843999</v>
+      </c>
+      <c r="F4" s="22">
+        <v>-4.1810449094690401E-2</v>
+      </c>
+      <c r="G4" s="22">
+        <v>3.8844111926459597E-2</v>
+      </c>
+      <c r="H4" s="22">
+        <v>1.7745056119474301E-2</v>
+      </c>
+      <c r="I4" s="22">
+        <v>3.6943299349446498E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="22">
+        <v>0.911575351148047</v>
+      </c>
+      <c r="C5" s="22">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22">
+        <v>7.0182907977486303E-2</v>
+      </c>
+      <c r="E5" s="22">
+        <v>5.7540950260368401E-2</v>
+      </c>
+      <c r="F5" s="22">
+        <v>-7.3924279766806406E-2</v>
+      </c>
+      <c r="G5" s="22">
+        <v>1.7920448845386201E-2</v>
+      </c>
+      <c r="H5" s="22">
+        <v>2.10783644355588E-3</v>
+      </c>
+      <c r="I5" s="22">
+        <v>-1.95066325689495E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="22">
+        <v>-7.7978328386156606E-2</v>
+      </c>
+      <c r="C6" s="22">
+        <v>7.0182907977486303E-2</v>
+      </c>
+      <c r="D6" s="22">
+        <v>1</v>
+      </c>
+      <c r="E6" s="22">
+        <v>-2.4355789899530401E-2</v>
+      </c>
+      <c r="F6" s="22">
+        <v>-0.15780121921818099</v>
+      </c>
+      <c r="G6" s="22">
+        <v>-0.25768454835178001</v>
+      </c>
+      <c r="H6" s="22">
+        <v>-6.3336623652883103E-2</v>
+      </c>
+      <c r="I6" s="22">
+        <v>-0.35181001506646598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="22">
+        <v>0.22442470424843999</v>
+      </c>
+      <c r="C7" s="22">
+        <v>5.7540950260368401E-2</v>
+      </c>
+      <c r="D7" s="22">
+        <v>-2.4355789899530401E-2</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1</v>
+      </c>
+      <c r="F7" s="22">
+        <v>2.8896980338555599E-2</v>
+      </c>
+      <c r="G7" s="22">
+        <v>-4.4041917004969497E-2</v>
+      </c>
+      <c r="H7" s="22">
+        <v>2.9582597055341402E-3</v>
+      </c>
+      <c r="I7" s="22">
+        <v>-0.13096932172599901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="22">
+        <v>-4.1810449094690401E-2</v>
+      </c>
+      <c r="C8" s="22">
+        <v>-7.3924279766806406E-2</v>
+      </c>
+      <c r="D8" s="22">
+        <v>-0.15780121921818099</v>
+      </c>
+      <c r="E8" s="22">
+        <v>2.8896980338555599E-2</v>
+      </c>
+      <c r="F8" s="22">
+        <v>1</v>
+      </c>
+      <c r="G8" s="22">
+        <v>0.35589819393729899</v>
+      </c>
+      <c r="H8" s="22">
+        <v>0.52252775730029899</v>
+      </c>
+      <c r="I8" s="22">
+        <v>0.52391297495329703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="22">
+        <v>3.8844111926459597E-2</v>
+      </c>
+      <c r="C9" s="22">
+        <v>1.7920448845386201E-2</v>
+      </c>
+      <c r="D9" s="22">
+        <v>-0.25768454835178001</v>
+      </c>
+      <c r="E9" s="22">
+        <v>-4.4041917004969497E-2</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0.35589819393729899</v>
+      </c>
+      <c r="G9" s="22">
+        <v>1</v>
+      </c>
+      <c r="H9" s="22">
+        <v>0.29717227609932501</v>
+      </c>
+      <c r="I9" s="22">
+        <v>0.526559400705369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="22">
+        <v>1.7745056119474301E-2</v>
+      </c>
+      <c r="C10" s="22">
+        <v>2.10783644355588E-3</v>
+      </c>
+      <c r="D10" s="22">
+        <v>-6.3336623652883103E-2</v>
+      </c>
+      <c r="E10" s="22">
+        <v>2.9582597055341402E-3</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0.52252775730029899</v>
+      </c>
+      <c r="G10" s="22">
+        <v>0.29717227609932501</v>
+      </c>
+      <c r="H10" s="22">
+        <v>1</v>
+      </c>
+      <c r="I10" s="22">
+        <v>0.15865210751543099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="22">
+        <v>3.6943299349446498E-2</v>
+      </c>
+      <c r="C11" s="22">
+        <v>-1.95066325689495E-3</v>
+      </c>
+      <c r="D11" s="22">
+        <v>-0.35181001506646598</v>
+      </c>
+      <c r="E11" s="22">
+        <v>-0.13096932172599901</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0.52391297495329703</v>
+      </c>
+      <c r="G11" s="22">
+        <v>0.526559400705369</v>
+      </c>
+      <c r="H11" s="22">
+        <v>0.15865210751543099</v>
+      </c>
+      <c r="I11" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="23" t="s">
+      <c r="B13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="23" t="s">
+      <c r="D13" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F13" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G13" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I13" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="24">
-        <v>1</v>
-      </c>
-      <c r="C4" s="24">
-        <v>0.911575351148047</v>
-      </c>
-      <c r="D4" s="24">
-        <v>-7.7978328386156606E-2</v>
-      </c>
-      <c r="E4" s="24">
-        <v>0.22442470424843999</v>
-      </c>
-      <c r="F4" s="24">
-        <v>-4.1810449094690401E-2</v>
-      </c>
-      <c r="G4" s="24">
-        <v>3.8844111926459597E-2</v>
-      </c>
-      <c r="H4" s="24">
-        <v>1.7745056119474301E-2</v>
-      </c>
-      <c r="I4" s="24">
-        <v>3.6943299349446498E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="21">
+        <v>0</v>
+      </c>
+      <c r="D14" s="23">
+        <v>7.0068278645862805E-7</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0</v>
+      </c>
+      <c r="F14" s="21">
+        <v>7.8793816747011504E-3</v>
+      </c>
+      <c r="G14" s="21">
+        <v>1.35670584795742E-2</v>
+      </c>
+      <c r="H14" s="21">
+        <v>0.25959290745912</v>
+      </c>
+      <c r="I14" s="21">
+        <v>1.8892463105694399E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="24">
-        <v>0.911575351148047</v>
-      </c>
-      <c r="C5" s="24">
-        <v>1</v>
-      </c>
-      <c r="D5" s="24">
-        <v>7.0182907977486303E-2</v>
-      </c>
-      <c r="E5" s="24">
-        <v>5.7540950260368401E-2</v>
-      </c>
-      <c r="F5" s="24">
-        <v>-7.3924279766806406E-2</v>
-      </c>
-      <c r="G5" s="24">
-        <v>1.7920448845386201E-2</v>
-      </c>
-      <c r="H5" s="24">
-        <v>2.10783644355588E-3</v>
-      </c>
-      <c r="I5" s="24">
-        <v>-1.95066325689495E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="24">
-        <v>-7.7978328386156606E-2</v>
-      </c>
-      <c r="C6" s="24">
-        <v>7.0182907977486303E-2</v>
-      </c>
-      <c r="D6" s="24">
-        <v>1</v>
-      </c>
-      <c r="E6" s="24">
-        <v>-2.4355789899530401E-2</v>
-      </c>
-      <c r="F6" s="24">
-        <v>-0.15780121921818099</v>
-      </c>
-      <c r="G6" s="24">
-        <v>-0.25768454835178001</v>
-      </c>
-      <c r="H6" s="24">
-        <v>-6.3336623652883103E-2</v>
-      </c>
-      <c r="I6" s="24">
-        <v>-0.35181001506646598</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="B15" s="21">
+        <v>0</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="23">
+        <v>8.0475397443713297E-6</v>
+      </c>
+      <c r="E15" s="21">
+        <v>2.5384055166388598E-4</v>
+      </c>
+      <c r="F15" s="23">
+        <v>2.5697237147071001E-6</v>
+      </c>
+      <c r="G15" s="21">
+        <v>0.254912416856591</v>
+      </c>
+      <c r="H15" s="21">
+        <v>0.89348031132935302</v>
+      </c>
+      <c r="I15" s="21">
+        <v>0.90138087888895202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="23">
+        <v>7.0068278645862805E-7</v>
+      </c>
+      <c r="C16" s="23">
+        <v>8.0475397443713297E-6</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="21">
+        <v>0.121755893029832</v>
+      </c>
+      <c r="F16" s="21">
+        <v>0</v>
+      </c>
+      <c r="G16" s="21">
+        <v>0</v>
+      </c>
+      <c r="H16" s="23">
+        <v>5.6363462227704302E-5</v>
+      </c>
+      <c r="I16" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="24">
-        <v>0.22442470424843999</v>
-      </c>
-      <c r="C7" s="24">
-        <v>5.7540950260368401E-2</v>
-      </c>
-      <c r="D7" s="24">
-        <v>-2.4355789899530401E-2</v>
-      </c>
-      <c r="E7" s="24">
-        <v>1</v>
-      </c>
-      <c r="F7" s="24">
-        <v>2.8896980338555599E-2</v>
-      </c>
-      <c r="G7" s="24">
-        <v>-4.4041917004969497E-2</v>
-      </c>
-      <c r="H7" s="24">
-        <v>2.9582597055341402E-3</v>
-      </c>
-      <c r="I7" s="24">
-        <v>-0.13096932172599901</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="B17" s="21">
+        <v>0</v>
+      </c>
+      <c r="C17" s="21">
+        <v>2.5384055166388598E-4</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0.121755893029832</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="21">
+        <v>6.6345678072578601E-2</v>
+      </c>
+      <c r="G17" s="21">
+        <v>5.1237847354879103E-3</v>
+      </c>
+      <c r="H17" s="21">
+        <v>0.850934981077621</v>
+      </c>
+      <c r="I17" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="24">
-        <v>-4.1810449094690401E-2</v>
-      </c>
-      <c r="C8" s="24">
-        <v>-7.3924279766806406E-2</v>
-      </c>
-      <c r="D8" s="24">
-        <v>-0.15780121921818099</v>
-      </c>
-      <c r="E8" s="24">
-        <v>2.8896980338555599E-2</v>
-      </c>
-      <c r="F8" s="24">
-        <v>1</v>
-      </c>
-      <c r="G8" s="24">
-        <v>0.35589819393729899</v>
-      </c>
-      <c r="H8" s="24">
-        <v>0.52252775730029899</v>
-      </c>
-      <c r="I8" s="24">
-        <v>0.52391297495329703</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="B18" s="21">
+        <v>7.8793816747011504E-3</v>
+      </c>
+      <c r="C18" s="23">
+        <v>2.5697237147071001E-6</v>
+      </c>
+      <c r="D18" s="21">
+        <v>0</v>
+      </c>
+      <c r="E18" s="21">
+        <v>6.6345678072578601E-2</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="21">
+        <v>0</v>
+      </c>
+      <c r="H18" s="21">
+        <v>0</v>
+      </c>
+      <c r="I18" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="24">
-        <v>3.8844111926459597E-2</v>
-      </c>
-      <c r="C9" s="24">
-        <v>1.7920448845386201E-2</v>
-      </c>
-      <c r="D9" s="24">
-        <v>-0.25768454835178001</v>
-      </c>
-      <c r="E9" s="24">
-        <v>-4.4041917004969497E-2</v>
-      </c>
-      <c r="F9" s="24">
-        <v>0.35589819393729899</v>
-      </c>
-      <c r="G9" s="24">
-        <v>1</v>
-      </c>
-      <c r="H9" s="24">
-        <v>0.29717227609932501</v>
-      </c>
-      <c r="I9" s="24">
-        <v>0.526559400705369</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="B19" s="21">
+        <v>1.35670584795742E-2</v>
+      </c>
+      <c r="C19" s="21">
+        <v>0.254912416856591</v>
+      </c>
+      <c r="D19" s="21">
+        <v>0</v>
+      </c>
+      <c r="E19" s="21">
+        <v>5.1237847354879103E-3</v>
+      </c>
+      <c r="F19" s="21">
+        <v>0</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="21">
+        <v>0</v>
+      </c>
+      <c r="I19" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="24">
-        <v>1.7745056119474301E-2</v>
-      </c>
-      <c r="C10" s="24">
-        <v>2.10783644355588E-3</v>
-      </c>
-      <c r="D10" s="24">
-        <v>-6.3336623652883103E-2</v>
-      </c>
-      <c r="E10" s="24">
-        <v>2.9582597055341402E-3</v>
-      </c>
-      <c r="F10" s="24">
-        <v>0.52252775730029899</v>
-      </c>
-      <c r="G10" s="24">
-        <v>0.29717227609932501</v>
-      </c>
-      <c r="H10" s="24">
-        <v>1</v>
-      </c>
-      <c r="I10" s="24">
-        <v>0.15865210751543099</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="B20" s="21">
+        <v>0.25959290745912</v>
+      </c>
+      <c r="C20" s="21">
+        <v>0.89348031132935302</v>
+      </c>
+      <c r="D20" s="23">
+        <v>5.6363462227704302E-5</v>
+      </c>
+      <c r="E20" s="21">
+        <v>0.850934981077621</v>
+      </c>
+      <c r="F20" s="21">
+        <v>0</v>
+      </c>
+      <c r="G20" s="21">
+        <v>0</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="24">
-        <v>3.6943299349446498E-2</v>
-      </c>
-      <c r="C11" s="24">
-        <v>-1.95066325689495E-3</v>
-      </c>
-      <c r="D11" s="24">
-        <v>-0.35181001506646598</v>
-      </c>
-      <c r="E11" s="24">
-        <v>-0.13096932172599901</v>
-      </c>
-      <c r="F11" s="24">
-        <v>0.52391297495329703</v>
-      </c>
-      <c r="G11" s="24">
-        <v>0.526559400705369</v>
-      </c>
-      <c r="H11" s="24">
-        <v>0.15865210751543099</v>
-      </c>
-      <c r="I11" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="B21" s="21">
+        <v>1.8892463105694399E-2</v>
+      </c>
+      <c r="C21" s="21">
+        <v>0.90138087888895202</v>
+      </c>
+      <c r="D21" s="21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="23">
-        <v>0</v>
-      </c>
-      <c r="D14" s="25">
-        <v>7.0068278645862805E-7</v>
-      </c>
-      <c r="E14" s="23">
-        <v>0</v>
-      </c>
-      <c r="F14" s="23">
-        <v>7.8793816747011504E-3</v>
-      </c>
-      <c r="G14" s="23">
-        <v>1.35670584795742E-2</v>
-      </c>
-      <c r="H14" s="23">
-        <v>0.25959290745912</v>
-      </c>
-      <c r="I14" s="23">
-        <v>1.8892463105694399E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="23">
-        <v>0</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="25">
-        <v>8.0475397443713297E-6</v>
-      </c>
-      <c r="E15" s="23">
-        <v>2.5384055166388598E-4</v>
-      </c>
-      <c r="F15" s="25">
-        <v>2.5697237147071001E-6</v>
-      </c>
-      <c r="G15" s="23">
-        <v>0.254912416856591</v>
-      </c>
-      <c r="H15" s="23">
-        <v>0.89348031132935302</v>
-      </c>
-      <c r="I15" s="23">
-        <v>0.90138087888895202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="25">
-        <v>7.0068278645862805E-7</v>
-      </c>
-      <c r="C16" s="25">
-        <v>8.0475397443713297E-6</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="23">
-        <v>0.121755893029832</v>
-      </c>
-      <c r="F16" s="23">
-        <v>0</v>
-      </c>
-      <c r="G16" s="23">
-        <v>0</v>
-      </c>
-      <c r="H16" s="25">
-        <v>5.6363462227704302E-5</v>
-      </c>
-      <c r="I16" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="23">
-        <v>0</v>
-      </c>
-      <c r="C17" s="23">
-        <v>2.5384055166388598E-4</v>
-      </c>
-      <c r="D17" s="23">
-        <v>0.121755893029832</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="23">
-        <v>6.6345678072578601E-2</v>
-      </c>
-      <c r="G17" s="23">
-        <v>5.1237847354879103E-3</v>
-      </c>
-      <c r="H17" s="23">
-        <v>0.850934981077621</v>
-      </c>
-      <c r="I17" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="23">
-        <v>7.8793816747011504E-3</v>
-      </c>
-      <c r="C18" s="25">
-        <v>2.5697237147071001E-6</v>
-      </c>
-      <c r="D18" s="23">
-        <v>0</v>
-      </c>
-      <c r="E18" s="23">
-        <v>6.6345678072578601E-2</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="23">
-        <v>0</v>
-      </c>
-      <c r="H18" s="23">
-        <v>0</v>
-      </c>
-      <c r="I18" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="23">
-        <v>1.35670584795742E-2</v>
-      </c>
-      <c r="C19" s="23">
-        <v>0.254912416856591</v>
-      </c>
-      <c r="D19" s="23">
-        <v>0</v>
-      </c>
-      <c r="E19" s="23">
-        <v>5.1237847354879103E-3</v>
-      </c>
-      <c r="F19" s="23">
-        <v>0</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="23">
-        <v>0</v>
-      </c>
-      <c r="I19" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="23">
-        <v>0.25959290745912</v>
-      </c>
-      <c r="C20" s="23">
-        <v>0.89348031132935302</v>
-      </c>
-      <c r="D20" s="25">
-        <v>5.6363462227704302E-5</v>
-      </c>
-      <c r="E20" s="23">
-        <v>0.850934981077621</v>
-      </c>
-      <c r="F20" s="23">
-        <v>0</v>
-      </c>
-      <c r="G20" s="23">
-        <v>0</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="23">
-        <v>1.8892463105694399E-2</v>
-      </c>
-      <c r="C21" s="23">
-        <v>0.90138087888895202</v>
-      </c>
-      <c r="D21" s="23">
-        <v>0</v>
-      </c>
-      <c r="E21" s="23">
-        <v>0</v>
-      </c>
-      <c r="F21" s="23">
-        <v>0</v>
-      </c>
-      <c r="G21" s="23">
-        <v>0</v>
-      </c>
-      <c r="H21" s="23">
-        <v>0</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
@@ -4508,22 +4842,22 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
@@ -4539,8 +4873,8 @@
       <c r="K55" s="2"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18" t="s">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -4562,22 +4896,22 @@
       <c r="K56" s="2"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="19">
-        <v>1</v>
-      </c>
-      <c r="C57" s="19">
+      <c r="B57" s="17">
+        <v>1</v>
+      </c>
+      <c r="C57" s="17">
         <v>-0.35181001506646598</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D57" s="17">
         <v>-0.13096932172599901</v>
       </c>
-      <c r="E57" s="19">
+      <c r="E57" s="17">
         <v>0.52391297495329703</v>
       </c>
-      <c r="F57" s="19">
+      <c r="F57" s="17">
         <v>0.15865210751543099</v>
       </c>
       <c r="G57" s="2"/>
@@ -4587,22 +4921,22 @@
       <c r="K57" s="2"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B58" s="19">
+      <c r="A58" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="17">
         <v>-0.35181001506646598</v>
       </c>
-      <c r="C58" s="19">
-        <v>1</v>
-      </c>
-      <c r="D58" s="19">
+      <c r="C58" s="17">
+        <v>1</v>
+      </c>
+      <c r="D58" s="17">
         <v>-2.4355789899530401E-2</v>
       </c>
-      <c r="E58" s="19">
+      <c r="E58" s="17">
         <v>-0.15780121921818099</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F58" s="17">
         <v>-6.3336623652883103E-2</v>
       </c>
       <c r="G58" s="2"/>
@@ -4612,22 +4946,22 @@
       <c r="K58" s="2"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="19">
+      <c r="B59" s="17">
         <v>-0.13096932172599901</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C59" s="17">
         <v>-2.4355789899530401E-2</v>
       </c>
-      <c r="D59" s="19">
-        <v>1</v>
-      </c>
-      <c r="E59" s="19">
+      <c r="D59" s="17">
+        <v>1</v>
+      </c>
+      <c r="E59" s="17">
         <v>2.8896980338555599E-2</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F59" s="17">
         <v>2.9582597055341402E-3</v>
       </c>
       <c r="G59" s="2"/>
@@ -4637,22 +4971,22 @@
       <c r="K59" s="2"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="19">
+      <c r="B60" s="17">
         <v>0.52391297495329703</v>
       </c>
-      <c r="C60" s="19">
+      <c r="C60" s="17">
         <v>-0.15780121921818099</v>
       </c>
-      <c r="D60" s="19">
+      <c r="D60" s="17">
         <v>2.8896980338555599E-2</v>
       </c>
-      <c r="E60" s="19">
-        <v>1</v>
-      </c>
-      <c r="F60" s="19">
+      <c r="E60" s="17">
+        <v>1</v>
+      </c>
+      <c r="F60" s="17">
         <v>0.52252775730029899</v>
       </c>
       <c r="G60" s="2"/>
@@ -4662,22 +4996,22 @@
       <c r="K60" s="2"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="19">
+      <c r="B61" s="17">
         <v>0.15865210751543099</v>
       </c>
-      <c r="C61" s="19">
+      <c r="C61" s="17">
         <v>-6.3336623652883103E-2</v>
       </c>
-      <c r="D61" s="19">
+      <c r="D61" s="17">
         <v>2.9582597055341402E-3</v>
       </c>
-      <c r="E61" s="19">
+      <c r="E61" s="17">
         <v>0.52252775730029899</v>
       </c>
-      <c r="F61" s="19">
+      <c r="F61" s="17">
         <v>1</v>
       </c>
       <c r="G61" s="2"/>
@@ -4700,7 +5034,7 @@
       <c r="K62" s="2"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="18"/>
+      <c r="A63" s="16"/>
       <c r="B63" s="4" t="s">
         <v>6</v>
       </c>
@@ -4723,7 +5057,7 @@
       <c r="K63" s="2"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -4748,7 +5082,7 @@
       <c r="K64" s="2"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B65" s="4">
@@ -4771,10 +5105,10 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
-      <c r="N65" s="21"/>
+      <c r="N65" s="19"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B66" s="4">
@@ -4799,7 +5133,7 @@
       <c r="K66" s="2"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="4">
@@ -4824,7 +5158,7 @@
       <c r="K67" s="2"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="18" t="s">
+      <c r="A68" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B68" s="4">
@@ -4849,22 +5183,22 @@
       <c r="K68" s="3"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" s="17" t="s">
+      <c r="A84" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="16"/>
-      <c r="M84" s="16"/>
-      <c r="N84" s="16"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="14"/>
+      <c r="N84" s="14"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
@@ -4914,7 +5248,7 @@
       <c r="L86" s="2"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="18" t="s">
+      <c r="A87" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B87" s="7">
@@ -4943,7 +5277,7 @@
       <c r="K87" s="2"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" s="18" t="s">
+      <c r="A88" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B88" s="7">
@@ -4972,7 +5306,7 @@
       <c r="K88" s="2"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="18" t="s">
+      <c r="A89" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B89" s="7">
@@ -5001,7 +5335,7 @@
       <c r="K89" s="2"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" s="18" t="s">
+      <c r="A90" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B90" s="7">
@@ -5030,7 +5364,7 @@
       <c r="K90" s="2"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="18" t="s">
+      <c r="A91" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B91" s="7">
@@ -5059,7 +5393,7 @@
       <c r="K91" s="2"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="18" t="s">
+      <c r="A92" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B92" s="7">
@@ -5088,7 +5422,7 @@
       <c r="K92" s="2"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="18" t="s">
+      <c r="A93" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B93" s="7">
@@ -5165,8 +5499,8 @@
       <c r="H96" s="4">
         <v>0</v>
       </c>
-      <c r="L96" s="21"/>
-      <c r="O96" s="21"/>
+      <c r="L96" s="19"/>
+      <c r="O96" s="19"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
@@ -5193,9 +5527,9 @@
       <c r="H97" s="5">
         <v>7.0068278645862805E-7</v>
       </c>
-      <c r="K97" s="21"/>
-      <c r="P97" s="21"/>
-      <c r="Q97" s="21"/>
+      <c r="K97" s="19"/>
+      <c r="P97" s="19"/>
+      <c r="Q97" s="19"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
@@ -5274,7 +5608,7 @@
       <c r="H100" s="4">
         <v>7.8793816747011504E-3</v>
       </c>
-      <c r="K100" s="21"/>
+      <c r="K100" s="19"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
@@ -5301,7 +5635,7 @@
       <c r="H101" s="4">
         <v>0.25959290745912</v>
       </c>
-      <c r="L101" s="21"/>
+      <c r="L101" s="19"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
@@ -5328,7 +5662,27 @@
       <c r="H102" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L102" s="21"/>
+      <c r="L102" s="19"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" s="24"/>
+      <c r="B126" s="25"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="25"/>
+      <c r="E126" s="25"/>
+      <c r="F126" s="25"/>
+      <c r="G126" s="25"/>
+      <c r="H126" s="25"/>
+      <c r="I126" s="25"/>
+      <c r="J126" s="24"/>
+      <c r="K126" s="24"/>
+      <c r="L126" s="24"/>
+      <c r="M126" s="24"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:I11">
